--- a/03_Figures/02_Report Plots/Input/Mapping.xlsx
+++ b/03_Figures/02_Report Plots/Input/Mapping.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\03_Figures\02_Report Plots\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\Documents\ESPON-DATA\03_Figures\02_Report Plots\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B43B4-709A-446C-A599-068BB9696B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33615" yWindow="2880" windowWidth="12405" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="1406">
   <si>
     <t>country</t>
   </si>
@@ -4161,13 +4160,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>UKM</t>
-  </si>
-  <si>
-    <t>SK</t>
   </si>
   <si>
     <t>HR021</t>
@@ -4263,7 +4256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4610,11 +4603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A775" workbookViewId="0">
-      <selection activeCell="D797" sqref="D797"/>
+    <sheetView tabSelected="1" topLeftCell="A1157" workbookViewId="0">
+      <selection activeCell="C1165" sqref="C1165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5815,7 +5808,7 @@
         <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5826,7 +5819,7 @@
         <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5837,7 +5830,7 @@
         <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5848,7 +5841,7 @@
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5859,7 +5852,7 @@
         <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5870,7 +5863,7 @@
         <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5881,7 +5874,7 @@
         <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5892,7 +5885,7 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -5980,7 +5973,7 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5991,7 +5984,7 @@
         <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -6002,7 +5995,7 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -6013,7 +6006,7 @@
         <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -6024,7 +6017,7 @@
         <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -6035,7 +6028,7 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -9115,7 +9108,7 @@
         <v>421</v>
       </c>
       <c r="C409" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -9126,7 +9119,7 @@
         <v>422</v>
       </c>
       <c r="C410" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -9137,7 +9130,7 @@
         <v>423</v>
       </c>
       <c r="C411" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -9148,7 +9141,7 @@
         <v>424</v>
       </c>
       <c r="C412" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -9159,7 +9152,7 @@
         <v>425</v>
       </c>
       <c r="C413" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -9170,7 +9163,7 @@
         <v>426</v>
       </c>
       <c r="C414" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -9181,7 +9174,7 @@
         <v>427</v>
       </c>
       <c r="C415" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -9192,7 +9185,7 @@
         <v>428</v>
       </c>
       <c r="C416" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -9203,7 +9196,7 @@
         <v>429</v>
       </c>
       <c r="C417" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -9214,7 +9207,7 @@
         <v>430</v>
       </c>
       <c r="C418" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -9225,7 +9218,7 @@
         <v>431</v>
       </c>
       <c r="C419" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -9236,7 +9229,7 @@
         <v>432</v>
       </c>
       <c r="C420" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -9247,7 +9240,7 @@
         <v>433</v>
       </c>
       <c r="C421" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -9258,7 +9251,7 @@
         <v>434</v>
       </c>
       <c r="C422" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -9269,7 +9262,7 @@
         <v>435</v>
       </c>
       <c r="C423" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -9280,7 +9273,7 @@
         <v>436</v>
       </c>
       <c r="C424" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -9291,7 +9284,7 @@
         <v>437</v>
       </c>
       <c r="C425" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -9302,7 +9295,7 @@
         <v>438</v>
       </c>
       <c r="C426" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -9313,7 +9306,7 @@
         <v>439</v>
       </c>
       <c r="C427" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -9324,7 +9317,7 @@
         <v>440</v>
       </c>
       <c r="C428" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -9335,7 +9328,7 @@
         <v>441</v>
       </c>
       <c r="C429" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -9346,7 +9339,7 @@
         <v>442</v>
       </c>
       <c r="C430" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -9357,7 +9350,7 @@
         <v>443</v>
       </c>
       <c r="C431" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -9368,7 +9361,7 @@
         <v>444</v>
       </c>
       <c r="C432" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9379,7 +9372,7 @@
         <v>445</v>
       </c>
       <c r="C433" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -9390,7 +9383,7 @@
         <v>446</v>
       </c>
       <c r="C434" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -9401,7 +9394,7 @@
         <v>447</v>
       </c>
       <c r="C435" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -9412,7 +9405,7 @@
         <v>448</v>
       </c>
       <c r="C436" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -9423,7 +9416,7 @@
         <v>449</v>
       </c>
       <c r="C437" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -9434,7 +9427,7 @@
         <v>450</v>
       </c>
       <c r="C438" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -9445,7 +9438,7 @@
         <v>451</v>
       </c>
       <c r="C439" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -9456,7 +9449,7 @@
         <v>452</v>
       </c>
       <c r="C440" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9467,7 +9460,7 @@
         <v>453</v>
       </c>
       <c r="C441" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -9478,7 +9471,7 @@
         <v>454</v>
       </c>
       <c r="C442" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -9489,7 +9482,7 @@
         <v>455</v>
       </c>
       <c r="C443" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -9500,7 +9493,7 @@
         <v>456</v>
       </c>
       <c r="C444" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -9511,7 +9504,7 @@
         <v>457</v>
       </c>
       <c r="C445" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -9522,7 +9515,7 @@
         <v>458</v>
       </c>
       <c r="C446" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -9533,7 +9526,7 @@
         <v>459</v>
       </c>
       <c r="C447" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9544,7 +9537,7 @@
         <v>460</v>
       </c>
       <c r="C448" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -9555,7 +9548,7 @@
         <v>461</v>
       </c>
       <c r="C449" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9566,7 +9559,7 @@
         <v>462</v>
       </c>
       <c r="C450" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -9577,7 +9570,7 @@
         <v>463</v>
       </c>
       <c r="C451" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9588,7 +9581,7 @@
         <v>464</v>
       </c>
       <c r="C452" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9599,7 +9592,7 @@
         <v>465</v>
       </c>
       <c r="C453" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -9610,7 +9603,7 @@
         <v>466</v>
       </c>
       <c r="C454" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9621,7 +9614,7 @@
         <v>467</v>
       </c>
       <c r="C455" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9632,7 +9625,7 @@
         <v>468</v>
       </c>
       <c r="C456" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9643,7 +9636,7 @@
         <v>469</v>
       </c>
       <c r="C457" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9654,7 +9647,7 @@
         <v>470</v>
       </c>
       <c r="C458" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9665,7 +9658,7 @@
         <v>471</v>
       </c>
       <c r="C459" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9676,7 +9669,7 @@
         <v>472</v>
       </c>
       <c r="C460" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9687,7 +9680,7 @@
         <v>473</v>
       </c>
       <c r="C461" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9698,7 +9691,7 @@
         <v>474</v>
       </c>
       <c r="C462" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9709,7 +9702,7 @@
         <v>475</v>
       </c>
       <c r="C463" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9720,7 +9713,7 @@
         <v>476</v>
       </c>
       <c r="C464" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9731,7 +9724,7 @@
         <v>477</v>
       </c>
       <c r="C465" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9742,7 +9735,7 @@
         <v>478</v>
       </c>
       <c r="C466" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9753,7 +9746,7 @@
         <v>479</v>
       </c>
       <c r="C467" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9764,7 +9757,7 @@
         <v>480</v>
       </c>
       <c r="C468" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9775,7 +9768,7 @@
         <v>481</v>
       </c>
       <c r="C469" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9786,7 +9779,7 @@
         <v>482</v>
       </c>
       <c r="C470" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9797,7 +9790,7 @@
         <v>483</v>
       </c>
       <c r="C471" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9808,7 +9801,7 @@
         <v>484</v>
       </c>
       <c r="C472" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -9819,7 +9812,7 @@
         <v>485</v>
       </c>
       <c r="C473" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9830,7 +9823,7 @@
         <v>486</v>
       </c>
       <c r="C474" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9841,7 +9834,7 @@
         <v>487</v>
       </c>
       <c r="C475" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9852,7 +9845,7 @@
         <v>488</v>
       </c>
       <c r="C476" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9863,7 +9856,7 @@
         <v>489</v>
       </c>
       <c r="C477" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9874,7 +9867,7 @@
         <v>490</v>
       </c>
       <c r="C478" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9885,7 +9878,7 @@
         <v>491</v>
       </c>
       <c r="C479" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9896,7 +9889,7 @@
         <v>492</v>
       </c>
       <c r="C480" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9907,7 +9900,7 @@
         <v>493</v>
       </c>
       <c r="C481" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9918,7 +9911,7 @@
         <v>494</v>
       </c>
       <c r="C482" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9929,7 +9922,7 @@
         <v>495</v>
       </c>
       <c r="C483" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9940,7 +9933,7 @@
         <v>496</v>
       </c>
       <c r="C484" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9951,7 +9944,7 @@
         <v>497</v>
       </c>
       <c r="C485" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9962,7 +9955,7 @@
         <v>498</v>
       </c>
       <c r="C486" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9973,7 +9966,7 @@
         <v>499</v>
       </c>
       <c r="C487" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9984,7 +9977,7 @@
         <v>500</v>
       </c>
       <c r="C488" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9995,7 +9988,7 @@
         <v>501</v>
       </c>
       <c r="C489" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -10006,7 +9999,7 @@
         <v>502</v>
       </c>
       <c r="C490" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -10017,7 +10010,7 @@
         <v>503</v>
       </c>
       <c r="C491" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -10028,7 +10021,7 @@
         <v>504</v>
       </c>
       <c r="C492" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -10039,7 +10032,7 @@
         <v>505</v>
       </c>
       <c r="C493" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -10050,7 +10043,7 @@
         <v>506</v>
       </c>
       <c r="C494" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -10061,7 +10054,7 @@
         <v>507</v>
       </c>
       <c r="C495" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -10072,7 +10065,7 @@
         <v>508</v>
       </c>
       <c r="C496" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -10083,7 +10076,7 @@
         <v>509</v>
       </c>
       <c r="C497" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -10094,7 +10087,7 @@
         <v>510</v>
       </c>
       <c r="C498" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -10105,7 +10098,7 @@
         <v>511</v>
       </c>
       <c r="C499" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -10116,7 +10109,7 @@
         <v>512</v>
       </c>
       <c r="C500" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -10127,7 +10120,7 @@
         <v>513</v>
       </c>
       <c r="C501" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -10138,7 +10131,7 @@
         <v>514</v>
       </c>
       <c r="C502" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -10149,7 +10142,7 @@
         <v>515</v>
       </c>
       <c r="C503" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -10160,7 +10153,7 @@
         <v>516</v>
       </c>
       <c r="C504" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -10171,7 +10164,7 @@
         <v>517</v>
       </c>
       <c r="C505" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -10182,7 +10175,7 @@
         <v>518</v>
       </c>
       <c r="C506" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -10193,7 +10186,7 @@
         <v>519</v>
       </c>
       <c r="C507" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -10204,7 +10197,7 @@
         <v>520</v>
       </c>
       <c r="C508" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -10215,7 +10208,7 @@
         <v>521</v>
       </c>
       <c r="C509" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -10226,7 +10219,7 @@
         <v>522</v>
       </c>
       <c r="C510" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -10237,7 +10230,7 @@
         <v>523</v>
       </c>
       <c r="C511" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -10248,7 +10241,7 @@
         <v>524</v>
       </c>
       <c r="C512" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -10259,7 +10252,7 @@
         <v>525</v>
       </c>
       <c r="C513" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -10270,7 +10263,7 @@
         <v>526</v>
       </c>
       <c r="C514" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -10281,7 +10274,7 @@
         <v>527</v>
       </c>
       <c r="C515" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -10292,7 +10285,7 @@
         <v>528</v>
       </c>
       <c r="C516" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -10303,7 +10296,7 @@
         <v>529</v>
       </c>
       <c r="C517" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -10314,7 +10307,7 @@
         <v>530</v>
       </c>
       <c r="C518" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -10325,7 +10318,7 @@
         <v>531</v>
       </c>
       <c r="C519" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -10336,7 +10329,7 @@
         <v>532</v>
       </c>
       <c r="C520" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -10347,7 +10340,7 @@
         <v>533</v>
       </c>
       <c r="C521" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10358,7 +10351,7 @@
         <v>534</v>
       </c>
       <c r="C522" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10369,7 +10362,7 @@
         <v>535</v>
       </c>
       <c r="C523" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -10380,7 +10373,7 @@
         <v>536</v>
       </c>
       <c r="C524" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -10391,7 +10384,7 @@
         <v>537</v>
       </c>
       <c r="C525" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -10402,7 +10395,7 @@
         <v>538</v>
       </c>
       <c r="C526" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -10413,7 +10406,7 @@
         <v>539</v>
       </c>
       <c r="C527" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -10424,7 +10417,7 @@
         <v>540</v>
       </c>
       <c r="C528" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10435,7 +10428,7 @@
         <v>541</v>
       </c>
       <c r="C529" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -10446,7 +10439,7 @@
         <v>542</v>
       </c>
       <c r="C530" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -10457,7 +10450,7 @@
         <v>543</v>
       </c>
       <c r="C531" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10468,7 +10461,7 @@
         <v>544</v>
       </c>
       <c r="C532" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -10479,7 +10472,7 @@
         <v>545</v>
       </c>
       <c r="C533" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10490,7 +10483,7 @@
         <v>546</v>
       </c>
       <c r="C534" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10501,7 +10494,7 @@
         <v>547</v>
       </c>
       <c r="C535" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10512,7 +10505,7 @@
         <v>548</v>
       </c>
       <c r="C536" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10523,7 +10516,7 @@
         <v>549</v>
       </c>
       <c r="C537" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10534,7 +10527,7 @@
         <v>550</v>
       </c>
       <c r="C538" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10545,7 +10538,7 @@
         <v>551</v>
       </c>
       <c r="C539" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10556,7 +10549,7 @@
         <v>552</v>
       </c>
       <c r="C540" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10567,7 +10560,7 @@
         <v>553</v>
       </c>
       <c r="C541" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10578,7 +10571,7 @@
         <v>554</v>
       </c>
       <c r="C542" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10589,7 +10582,7 @@
         <v>555</v>
       </c>
       <c r="C543" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10600,7 +10593,7 @@
         <v>556</v>
       </c>
       <c r="C544" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10611,7 +10604,7 @@
         <v>557</v>
       </c>
       <c r="C545" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10622,7 +10615,7 @@
         <v>558</v>
       </c>
       <c r="C546" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10633,7 +10626,7 @@
         <v>559</v>
       </c>
       <c r="C547" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10644,7 +10637,7 @@
         <v>560</v>
       </c>
       <c r="C548" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10655,7 +10648,7 @@
         <v>561</v>
       </c>
       <c r="C549" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10666,7 +10659,7 @@
         <v>562</v>
       </c>
       <c r="C550" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10677,7 +10670,7 @@
         <v>563</v>
       </c>
       <c r="C551" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10688,7 +10681,7 @@
         <v>564</v>
       </c>
       <c r="C552" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10699,7 +10692,7 @@
         <v>565</v>
       </c>
       <c r="C553" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10710,7 +10703,7 @@
         <v>566</v>
       </c>
       <c r="C554" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10721,7 +10714,7 @@
         <v>567</v>
       </c>
       <c r="C555" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10732,7 +10725,7 @@
         <v>568</v>
       </c>
       <c r="C556" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10743,7 +10736,7 @@
         <v>569</v>
       </c>
       <c r="C557" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10754,7 +10747,7 @@
         <v>570</v>
       </c>
       <c r="C558" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10765,7 +10758,7 @@
         <v>571</v>
       </c>
       <c r="C559" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10776,7 +10769,7 @@
         <v>572</v>
       </c>
       <c r="C560" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10787,7 +10780,7 @@
         <v>573</v>
       </c>
       <c r="C561" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10798,7 +10791,7 @@
         <v>574</v>
       </c>
       <c r="C562" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10809,7 +10802,7 @@
         <v>575</v>
       </c>
       <c r="C563" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10820,7 +10813,7 @@
         <v>576</v>
       </c>
       <c r="C564" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10831,7 +10824,7 @@
         <v>577</v>
       </c>
       <c r="C565" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10842,7 +10835,7 @@
         <v>578</v>
       </c>
       <c r="C566" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10853,7 +10846,7 @@
         <v>579</v>
       </c>
       <c r="C567" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10864,7 +10857,7 @@
         <v>580</v>
       </c>
       <c r="C568" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10875,7 +10868,7 @@
         <v>581</v>
       </c>
       <c r="C569" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10886,7 +10879,7 @@
         <v>582</v>
       </c>
       <c r="C570" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10897,7 +10890,7 @@
         <v>583</v>
       </c>
       <c r="C571" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10908,7 +10901,7 @@
         <v>584</v>
       </c>
       <c r="C572" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10919,7 +10912,7 @@
         <v>585</v>
       </c>
       <c r="C573" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10930,7 +10923,7 @@
         <v>586</v>
       </c>
       <c r="C574" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10941,7 +10934,7 @@
         <v>587</v>
       </c>
       <c r="C575" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10952,7 +10945,7 @@
         <v>588</v>
       </c>
       <c r="C576" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10963,7 +10956,7 @@
         <v>589</v>
       </c>
       <c r="C577" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10974,7 +10967,7 @@
         <v>590</v>
       </c>
       <c r="C578" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10985,7 +10978,7 @@
         <v>591</v>
       </c>
       <c r="C579" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10996,7 +10989,7 @@
         <v>592</v>
       </c>
       <c r="C580" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -11007,7 +11000,7 @@
         <v>593</v>
       </c>
       <c r="C581" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -11018,7 +11011,7 @@
         <v>594</v>
       </c>
       <c r="C582" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -11029,7 +11022,7 @@
         <v>595</v>
       </c>
       <c r="C583" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -11040,7 +11033,7 @@
         <v>596</v>
       </c>
       <c r="C584" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -11051,7 +11044,7 @@
         <v>597</v>
       </c>
       <c r="C585" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -11062,7 +11055,7 @@
         <v>598</v>
       </c>
       <c r="C586" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -11073,7 +11066,7 @@
         <v>599</v>
       </c>
       <c r="C587" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -11084,7 +11077,7 @@
         <v>600</v>
       </c>
       <c r="C588" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -11095,7 +11088,7 @@
         <v>601</v>
       </c>
       <c r="C589" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -11106,7 +11099,7 @@
         <v>602</v>
       </c>
       <c r="C590" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -11117,7 +11110,7 @@
         <v>603</v>
       </c>
       <c r="C591" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -11128,7 +11121,7 @@
         <v>604</v>
       </c>
       <c r="C592" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -11139,7 +11132,7 @@
         <v>605</v>
       </c>
       <c r="C593" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -11150,7 +11143,7 @@
         <v>606</v>
       </c>
       <c r="C594" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -11161,7 +11154,7 @@
         <v>607</v>
       </c>
       <c r="C595" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -11172,7 +11165,7 @@
         <v>608</v>
       </c>
       <c r="C596" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -11183,7 +11176,7 @@
         <v>609</v>
       </c>
       <c r="C597" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -11194,7 +11187,7 @@
         <v>610</v>
       </c>
       <c r="C598" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -11205,7 +11198,7 @@
         <v>611</v>
       </c>
       <c r="C599" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -11216,7 +11209,7 @@
         <v>612</v>
       </c>
       <c r="C600" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -11227,7 +11220,7 @@
         <v>613</v>
       </c>
       <c r="C601" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -11238,7 +11231,7 @@
         <v>614</v>
       </c>
       <c r="C602" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -11249,7 +11242,7 @@
         <v>615</v>
       </c>
       <c r="C603" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -11260,7 +11253,7 @@
         <v>616</v>
       </c>
       <c r="C604" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -11271,7 +11264,7 @@
         <v>617</v>
       </c>
       <c r="C605" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -11282,7 +11275,7 @@
         <v>618</v>
       </c>
       <c r="C606" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -11293,7 +11286,7 @@
         <v>619</v>
       </c>
       <c r="C607" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -11304,7 +11297,7 @@
         <v>620</v>
       </c>
       <c r="C608" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -11315,7 +11308,7 @@
         <v>621</v>
       </c>
       <c r="C609" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -11326,7 +11319,7 @@
         <v>622</v>
       </c>
       <c r="C610" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -11337,7 +11330,7 @@
         <v>623</v>
       </c>
       <c r="C611" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -11348,7 +11341,7 @@
         <v>624</v>
       </c>
       <c r="C612" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -11359,7 +11352,7 @@
         <v>625</v>
       </c>
       <c r="C613" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -11370,7 +11363,7 @@
         <v>626</v>
       </c>
       <c r="C614" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11381,7 +11374,7 @@
         <v>627</v>
       </c>
       <c r="C615" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -11392,7 +11385,7 @@
         <v>628</v>
       </c>
       <c r="C616" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11403,7 +11396,7 @@
         <v>629</v>
       </c>
       <c r="C617" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -11414,7 +11407,7 @@
         <v>630</v>
       </c>
       <c r="C618" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -11425,7 +11418,7 @@
         <v>631</v>
       </c>
       <c r="C619" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -11436,7 +11429,7 @@
         <v>632</v>
       </c>
       <c r="C620" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -11447,7 +11440,7 @@
         <v>633</v>
       </c>
       <c r="C621" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -11458,7 +11451,7 @@
         <v>634</v>
       </c>
       <c r="C622" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11469,7 +11462,7 @@
         <v>635</v>
       </c>
       <c r="C623" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -11480,7 +11473,7 @@
         <v>636</v>
       </c>
       <c r="C624" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -11491,7 +11484,7 @@
         <v>637</v>
       </c>
       <c r="C625" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -11502,7 +11495,7 @@
         <v>638</v>
       </c>
       <c r="C626" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -11513,7 +11506,7 @@
         <v>639</v>
       </c>
       <c r="C627" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -11524,7 +11517,7 @@
         <v>640</v>
       </c>
       <c r="C628" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -11535,7 +11528,7 @@
         <v>641</v>
       </c>
       <c r="C629" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -11546,7 +11539,7 @@
         <v>642</v>
       </c>
       <c r="C630" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -11557,7 +11550,7 @@
         <v>643</v>
       </c>
       <c r="C631" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -11568,7 +11561,7 @@
         <v>644</v>
       </c>
       <c r="C632" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -11579,7 +11572,7 @@
         <v>645</v>
       </c>
       <c r="C633" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -11590,7 +11583,7 @@
         <v>646</v>
       </c>
       <c r="C634" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -11601,7 +11594,7 @@
         <v>647</v>
       </c>
       <c r="C635" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -11612,7 +11605,7 @@
         <v>648</v>
       </c>
       <c r="C636" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -11623,7 +11616,7 @@
         <v>649</v>
       </c>
       <c r="C637" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -11634,7 +11627,7 @@
         <v>650</v>
       </c>
       <c r="C638" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -11645,7 +11638,7 @@
         <v>651</v>
       </c>
       <c r="C639" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -11656,7 +11649,7 @@
         <v>652</v>
       </c>
       <c r="C640" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -11667,7 +11660,7 @@
         <v>653</v>
       </c>
       <c r="C641" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -11678,7 +11671,7 @@
         <v>654</v>
       </c>
       <c r="C642" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -11689,7 +11682,7 @@
         <v>655</v>
       </c>
       <c r="C643" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -11700,7 +11693,7 @@
         <v>656</v>
       </c>
       <c r="C644" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -11711,7 +11704,7 @@
         <v>657</v>
       </c>
       <c r="C645" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -11722,7 +11715,7 @@
         <v>658</v>
       </c>
       <c r="C646" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -11733,7 +11726,7 @@
         <v>659</v>
       </c>
       <c r="C647" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -11744,7 +11737,7 @@
         <v>660</v>
       </c>
       <c r="C648" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -11755,7 +11748,7 @@
         <v>661</v>
       </c>
       <c r="C649" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -11766,7 +11759,7 @@
         <v>662</v>
       </c>
       <c r="C650" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -11777,7 +11770,7 @@
         <v>663</v>
       </c>
       <c r="C651" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -11788,7 +11781,7 @@
         <v>664</v>
       </c>
       <c r="C652" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -11799,7 +11792,7 @@
         <v>665</v>
       </c>
       <c r="C653" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -11810,7 +11803,7 @@
         <v>666</v>
       </c>
       <c r="C654" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -11821,7 +11814,7 @@
         <v>667</v>
       </c>
       <c r="C655" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -11832,7 +11825,7 @@
         <v>668</v>
       </c>
       <c r="C656" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -11843,7 +11836,7 @@
         <v>669</v>
       </c>
       <c r="C657" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -11854,7 +11847,7 @@
         <v>670</v>
       </c>
       <c r="C658" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -11865,7 +11858,7 @@
         <v>671</v>
       </c>
       <c r="C659" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -11876,7 +11869,7 @@
         <v>672</v>
       </c>
       <c r="C660" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -11887,7 +11880,7 @@
         <v>673</v>
       </c>
       <c r="C661" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -11898,7 +11891,7 @@
         <v>674</v>
       </c>
       <c r="C662" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -11909,7 +11902,7 @@
         <v>675</v>
       </c>
       <c r="C663" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
@@ -11920,7 +11913,7 @@
         <v>676</v>
       </c>
       <c r="C664" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
@@ -11931,7 +11924,7 @@
         <v>677</v>
       </c>
       <c r="C665" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
@@ -11942,7 +11935,7 @@
         <v>678</v>
       </c>
       <c r="C666" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
@@ -11953,7 +11946,7 @@
         <v>679</v>
       </c>
       <c r="C667" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
@@ -11964,7 +11957,7 @@
         <v>680</v>
       </c>
       <c r="C668" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -11975,7 +11968,7 @@
         <v>681</v>
       </c>
       <c r="C669" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
@@ -11986,7 +11979,7 @@
         <v>682</v>
       </c>
       <c r="C670" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
@@ -11997,7 +11990,7 @@
         <v>683</v>
       </c>
       <c r="C671" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
@@ -12008,7 +12001,7 @@
         <v>684</v>
       </c>
       <c r="C672" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -12019,7 +12012,7 @@
         <v>685</v>
       </c>
       <c r="C673" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -12030,7 +12023,7 @@
         <v>686</v>
       </c>
       <c r="C674" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -12041,7 +12034,7 @@
         <v>687</v>
       </c>
       <c r="C675" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
@@ -12052,7 +12045,7 @@
         <v>688</v>
       </c>
       <c r="C676" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -12063,7 +12056,7 @@
         <v>689</v>
       </c>
       <c r="C677" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -12074,7 +12067,7 @@
         <v>690</v>
       </c>
       <c r="C678" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -12085,7 +12078,7 @@
         <v>691</v>
       </c>
       <c r="C679" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -12096,7 +12089,7 @@
         <v>692</v>
       </c>
       <c r="C680" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -12107,7 +12100,7 @@
         <v>693</v>
       </c>
       <c r="C681" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -12118,7 +12111,7 @@
         <v>694</v>
       </c>
       <c r="C682" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -12129,7 +12122,7 @@
         <v>695</v>
       </c>
       <c r="C683" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -12140,7 +12133,7 @@
         <v>696</v>
       </c>
       <c r="C684" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -12151,7 +12144,7 @@
         <v>697</v>
       </c>
       <c r="C685" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -12162,7 +12155,7 @@
         <v>698</v>
       </c>
       <c r="C686" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -12173,7 +12166,7 @@
         <v>699</v>
       </c>
       <c r="C687" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -12184,7 +12177,7 @@
         <v>700</v>
       </c>
       <c r="C688" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
@@ -12195,7 +12188,7 @@
         <v>701</v>
       </c>
       <c r="C689" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
@@ -12206,7 +12199,7 @@
         <v>702</v>
       </c>
       <c r="C690" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
@@ -12217,7 +12210,7 @@
         <v>703</v>
       </c>
       <c r="C691" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
@@ -12228,7 +12221,7 @@
         <v>704</v>
       </c>
       <c r="C692" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
@@ -12239,7 +12232,7 @@
         <v>705</v>
       </c>
       <c r="C693" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
@@ -12250,7 +12243,7 @@
         <v>706</v>
       </c>
       <c r="C694" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
@@ -12261,7 +12254,7 @@
         <v>707</v>
       </c>
       <c r="C695" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
@@ -12272,7 +12265,7 @@
         <v>708</v>
       </c>
       <c r="C696" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
@@ -12283,7 +12276,7 @@
         <v>709</v>
       </c>
       <c r="C697" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
@@ -12294,7 +12287,7 @@
         <v>710</v>
       </c>
       <c r="C698" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
@@ -12305,7 +12298,7 @@
         <v>711</v>
       </c>
       <c r="C699" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
@@ -12316,7 +12309,7 @@
         <v>712</v>
       </c>
       <c r="C700" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
@@ -12327,7 +12320,7 @@
         <v>713</v>
       </c>
       <c r="C701" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
@@ -12338,7 +12331,7 @@
         <v>714</v>
       </c>
       <c r="C702" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
@@ -12349,7 +12342,7 @@
         <v>715</v>
       </c>
       <c r="C703" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
@@ -12360,7 +12353,7 @@
         <v>716</v>
       </c>
       <c r="C704" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
@@ -12371,7 +12364,7 @@
         <v>717</v>
       </c>
       <c r="C705" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
@@ -12382,7 +12375,7 @@
         <v>718</v>
       </c>
       <c r="C706" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
@@ -12393,7 +12386,7 @@
         <v>719</v>
       </c>
       <c r="C707" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
@@ -12404,7 +12397,7 @@
         <v>720</v>
       </c>
       <c r="C708" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
@@ -12415,7 +12408,7 @@
         <v>721</v>
       </c>
       <c r="C709" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
@@ -12426,7 +12419,7 @@
         <v>722</v>
       </c>
       <c r="C710" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
@@ -12437,7 +12430,7 @@
         <v>723</v>
       </c>
       <c r="C711" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -12448,7 +12441,7 @@
         <v>724</v>
       </c>
       <c r="C712" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
@@ -12459,7 +12452,7 @@
         <v>725</v>
       </c>
       <c r="C713" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
@@ -12470,7 +12463,7 @@
         <v>726</v>
       </c>
       <c r="C714" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
@@ -12481,7 +12474,7 @@
         <v>727</v>
       </c>
       <c r="C715" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
@@ -12492,7 +12485,7 @@
         <v>728</v>
       </c>
       <c r="C716" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
@@ -12503,7 +12496,7 @@
         <v>729</v>
       </c>
       <c r="C717" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
@@ -12514,7 +12507,7 @@
         <v>730</v>
       </c>
       <c r="C718" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
@@ -12525,7 +12518,7 @@
         <v>731</v>
       </c>
       <c r="C719" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
@@ -12536,7 +12529,7 @@
         <v>732</v>
       </c>
       <c r="C720" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
@@ -12547,7 +12540,7 @@
         <v>733</v>
       </c>
       <c r="C721" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
@@ -12558,7 +12551,7 @@
         <v>734</v>
       </c>
       <c r="C722" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
@@ -12569,7 +12562,7 @@
         <v>735</v>
       </c>
       <c r="C723" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
@@ -12580,7 +12573,7 @@
         <v>736</v>
       </c>
       <c r="C724" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
@@ -12591,7 +12584,7 @@
         <v>737</v>
       </c>
       <c r="C725" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
@@ -12602,7 +12595,7 @@
         <v>738</v>
       </c>
       <c r="C726" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
@@ -12613,7 +12606,7 @@
         <v>739</v>
       </c>
       <c r="C727" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
@@ -12624,7 +12617,7 @@
         <v>740</v>
       </c>
       <c r="C728" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
@@ -12635,7 +12628,7 @@
         <v>741</v>
       </c>
       <c r="C729" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
@@ -12646,7 +12639,7 @@
         <v>742</v>
       </c>
       <c r="C730" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
@@ -12657,7 +12650,7 @@
         <v>743</v>
       </c>
       <c r="C731" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
@@ -12668,7 +12661,7 @@
         <v>744</v>
       </c>
       <c r="C732" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
@@ -12679,7 +12672,7 @@
         <v>745</v>
       </c>
       <c r="C733" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
@@ -12690,7 +12683,7 @@
         <v>746</v>
       </c>
       <c r="C734" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
@@ -12701,7 +12694,7 @@
         <v>747</v>
       </c>
       <c r="C735" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
@@ -12712,7 +12705,7 @@
         <v>748</v>
       </c>
       <c r="C736" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
@@ -12723,7 +12716,7 @@
         <v>749</v>
       </c>
       <c r="C737" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
@@ -12734,7 +12727,7 @@
         <v>750</v>
       </c>
       <c r="C738" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
@@ -12745,7 +12738,7 @@
         <v>751</v>
       </c>
       <c r="C739" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
@@ -12756,7 +12749,7 @@
         <v>752</v>
       </c>
       <c r="C740" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -12767,7 +12760,7 @@
         <v>753</v>
       </c>
       <c r="C741" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
@@ -12778,7 +12771,7 @@
         <v>754</v>
       </c>
       <c r="C742" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -12789,7 +12782,7 @@
         <v>755</v>
       </c>
       <c r="C743" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
@@ -12800,7 +12793,7 @@
         <v>756</v>
       </c>
       <c r="C744" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
@@ -12811,7 +12804,7 @@
         <v>757</v>
       </c>
       <c r="C745" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
@@ -12822,7 +12815,7 @@
         <v>758</v>
       </c>
       <c r="C746" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
@@ -12833,7 +12826,7 @@
         <v>759</v>
       </c>
       <c r="C747" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
@@ -12844,7 +12837,7 @@
         <v>760</v>
       </c>
       <c r="C748" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
@@ -12855,7 +12848,7 @@
         <v>761</v>
       </c>
       <c r="C749" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
@@ -12866,7 +12859,7 @@
         <v>762</v>
       </c>
       <c r="C750" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
@@ -12877,7 +12870,7 @@
         <v>763</v>
       </c>
       <c r="C751" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
@@ -12888,7 +12881,7 @@
         <v>764</v>
       </c>
       <c r="C752" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
@@ -12899,7 +12892,7 @@
         <v>765</v>
       </c>
       <c r="C753" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
@@ -12910,7 +12903,7 @@
         <v>766</v>
       </c>
       <c r="C754" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
@@ -12921,7 +12914,7 @@
         <v>767</v>
       </c>
       <c r="C755" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
@@ -12932,7 +12925,7 @@
         <v>768</v>
       </c>
       <c r="C756" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
@@ -12943,7 +12936,7 @@
         <v>769</v>
       </c>
       <c r="C757" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
@@ -12954,7 +12947,7 @@
         <v>770</v>
       </c>
       <c r="C758" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
@@ -12965,7 +12958,7 @@
         <v>771</v>
       </c>
       <c r="C759" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
@@ -12976,7 +12969,7 @@
         <v>772</v>
       </c>
       <c r="C760" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
@@ -12987,7 +12980,7 @@
         <v>773</v>
       </c>
       <c r="C761" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
@@ -12998,7 +12991,7 @@
         <v>774</v>
       </c>
       <c r="C762" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
@@ -13009,7 +13002,7 @@
         <v>775</v>
       </c>
       <c r="C763" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
@@ -13020,7 +13013,7 @@
         <v>776</v>
       </c>
       <c r="C764" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
@@ -13031,7 +13024,7 @@
         <v>777</v>
       </c>
       <c r="C765" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
@@ -13042,7 +13035,7 @@
         <v>778</v>
       </c>
       <c r="C766" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
@@ -13053,7 +13046,7 @@
         <v>779</v>
       </c>
       <c r="C767" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
@@ -13064,7 +13057,7 @@
         <v>780</v>
       </c>
       <c r="C768" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
@@ -13075,7 +13068,7 @@
         <v>781</v>
       </c>
       <c r="C769" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
@@ -13086,7 +13079,7 @@
         <v>782</v>
       </c>
       <c r="C770" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -13097,7 +13090,7 @@
         <v>783</v>
       </c>
       <c r="C771" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
@@ -13108,7 +13101,7 @@
         <v>784</v>
       </c>
       <c r="C772" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
@@ -13119,7 +13112,7 @@
         <v>785</v>
       </c>
       <c r="C773" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -13130,7 +13123,7 @@
         <v>786</v>
       </c>
       <c r="C774" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -13141,7 +13134,7 @@
         <v>787</v>
       </c>
       <c r="C775" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -13152,7 +13145,7 @@
         <v>788</v>
       </c>
       <c r="C776" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -13163,7 +13156,7 @@
         <v>789</v>
       </c>
       <c r="C777" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -13174,7 +13167,7 @@
         <v>790</v>
       </c>
       <c r="C778" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
@@ -13185,7 +13178,7 @@
         <v>791</v>
       </c>
       <c r="C779" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -13196,7 +13189,7 @@
         <v>792</v>
       </c>
       <c r="C780" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -13207,7 +13200,7 @@
         <v>793</v>
       </c>
       <c r="C781" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -13218,7 +13211,7 @@
         <v>794</v>
       </c>
       <c r="C782" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -13229,7 +13222,7 @@
         <v>795</v>
       </c>
       <c r="C783" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -13240,7 +13233,7 @@
         <v>796</v>
       </c>
       <c r="C784" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
@@ -13251,7 +13244,7 @@
         <v>797</v>
       </c>
       <c r="C785" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -13262,7 +13255,7 @@
         <v>798</v>
       </c>
       <c r="C786" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
@@ -13273,7 +13266,7 @@
         <v>799</v>
       </c>
       <c r="C787" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
@@ -13284,7 +13277,7 @@
         <v>800</v>
       </c>
       <c r="C788" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
@@ -13295,7 +13288,7 @@
         <v>801</v>
       </c>
       <c r="C789" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -13306,7 +13299,7 @@
         <v>802</v>
       </c>
       <c r="C790" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
@@ -13317,7 +13310,7 @@
         <v>803</v>
       </c>
       <c r="C791" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
@@ -13328,7 +13321,7 @@
         <v>804</v>
       </c>
       <c r="C792" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
@@ -13339,7 +13332,7 @@
         <v>805</v>
       </c>
       <c r="C793" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
@@ -13350,7 +13343,7 @@
         <v>806</v>
       </c>
       <c r="C794" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
@@ -13361,7 +13354,7 @@
         <v>807</v>
       </c>
       <c r="C795" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
@@ -13372,7 +13365,7 @@
         <v>808</v>
       </c>
       <c r="C796" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
@@ -13383,7 +13376,7 @@
         <v>809</v>
       </c>
       <c r="C797" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
@@ -13394,7 +13387,7 @@
         <v>810</v>
       </c>
       <c r="C798" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
@@ -13405,7 +13398,7 @@
         <v>811</v>
       </c>
       <c r="C799" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
@@ -13416,7 +13409,7 @@
         <v>812</v>
       </c>
       <c r="C800" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
@@ -13427,7 +13420,7 @@
         <v>813</v>
       </c>
       <c r="C801" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
@@ -13438,7 +13431,7 @@
         <v>814</v>
       </c>
       <c r="C802" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
@@ -13449,7 +13442,7 @@
         <v>815</v>
       </c>
       <c r="C803" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
@@ -13460,7 +13453,7 @@
         <v>816</v>
       </c>
       <c r="C804" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
@@ -13471,7 +13464,7 @@
         <v>817</v>
       </c>
       <c r="C805" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
@@ -13482,7 +13475,7 @@
         <v>818</v>
       </c>
       <c r="C806" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
@@ -13493,7 +13486,7 @@
         <v>819</v>
       </c>
       <c r="C807" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
@@ -13504,7 +13497,7 @@
         <v>820</v>
       </c>
       <c r="C808" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
@@ -13515,7 +13508,7 @@
         <v>821</v>
       </c>
       <c r="C809" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
@@ -16705,7 +16698,7 @@
         <v>1126</v>
       </c>
       <c r="C1099" t="s">
-        <v>1375</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
@@ -16716,7 +16709,7 @@
         <v>1127</v>
       </c>
       <c r="C1100" t="s">
-        <v>1375</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
@@ -16727,7 +16720,7 @@
         <v>1128</v>
       </c>
       <c r="C1101" t="s">
-        <v>1375</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
@@ -16738,7 +16731,7 @@
         <v>1129</v>
       </c>
       <c r="C1102" t="s">
-        <v>1375</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
@@ -16749,7 +16742,7 @@
         <v>1130</v>
       </c>
       <c r="C1103" t="s">
-        <v>1375</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
@@ -16760,7 +16753,7 @@
         <v>1131</v>
       </c>
       <c r="C1104" t="s">
-        <v>1375</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
@@ -16771,7 +16764,7 @@
         <v>1132</v>
       </c>
       <c r="C1105" t="s">
-        <v>1375</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
@@ -16782,7 +16775,7 @@
         <v>1133</v>
       </c>
       <c r="C1106" t="s">
-        <v>1375</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
@@ -16793,7 +16786,7 @@
         <v>1134</v>
       </c>
       <c r="C1107" t="s">
-        <v>1375</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
@@ -16804,7 +16797,7 @@
         <v>1135</v>
       </c>
       <c r="C1108" t="s">
-        <v>1375</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
@@ -16815,7 +16808,7 @@
         <v>1136</v>
       </c>
       <c r="C1109" t="s">
-        <v>1375</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
@@ -16826,7 +16819,7 @@
         <v>1137</v>
       </c>
       <c r="C1110" t="s">
-        <v>1375</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
@@ -16837,7 +16830,7 @@
         <v>1138</v>
       </c>
       <c r="C1111" t="s">
-        <v>1375</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
@@ -16848,7 +16841,7 @@
         <v>1139</v>
       </c>
       <c r="C1112" t="s">
-        <v>1375</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
@@ -16859,7 +16852,7 @@
         <v>1140</v>
       </c>
       <c r="C1113" t="s">
-        <v>1375</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
@@ -16870,7 +16863,7 @@
         <v>1141</v>
       </c>
       <c r="C1114" t="s">
-        <v>1375</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
@@ -16881,7 +16874,7 @@
         <v>1142</v>
       </c>
       <c r="C1115" t="s">
-        <v>1375</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
@@ -16892,7 +16885,7 @@
         <v>1143</v>
       </c>
       <c r="C1116" t="s">
-        <v>1375</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
@@ -16903,7 +16896,7 @@
         <v>1144</v>
       </c>
       <c r="C1117" t="s">
-        <v>1375</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
@@ -16914,7 +16907,7 @@
         <v>1145</v>
       </c>
       <c r="C1118" t="s">
-        <v>1375</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
@@ -16925,7 +16918,7 @@
         <v>1146</v>
       </c>
       <c r="C1119" t="s">
-        <v>1375</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
@@ -16936,7 +16929,7 @@
         <v>1147</v>
       </c>
       <c r="C1120" t="s">
-        <v>1375</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
@@ -16947,7 +16940,7 @@
         <v>1148</v>
       </c>
       <c r="C1121" t="s">
-        <v>1375</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
@@ -16958,7 +16951,7 @@
         <v>1149</v>
       </c>
       <c r="C1122" t="s">
-        <v>1375</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
@@ -16969,7 +16962,7 @@
         <v>1150</v>
       </c>
       <c r="C1123" t="s">
-        <v>1375</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
@@ -16980,7 +16973,7 @@
         <v>1151</v>
       </c>
       <c r="C1124" t="s">
-        <v>1375</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
@@ -16991,7 +16984,7 @@
         <v>1152</v>
       </c>
       <c r="C1125" t="s">
-        <v>1375</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
@@ -17002,7 +16995,7 @@
         <v>1153</v>
       </c>
       <c r="C1126" t="s">
-        <v>1375</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
@@ -17013,7 +17006,7 @@
         <v>1154</v>
       </c>
       <c r="C1127" t="s">
-        <v>1375</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
@@ -17024,7 +17017,7 @@
         <v>1155</v>
       </c>
       <c r="C1128" t="s">
-        <v>1375</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
@@ -17035,7 +17028,7 @@
         <v>1156</v>
       </c>
       <c r="C1129" t="s">
-        <v>1375</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
@@ -17046,7 +17039,7 @@
         <v>1157</v>
       </c>
       <c r="C1130" t="s">
-        <v>1375</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
@@ -17057,7 +17050,7 @@
         <v>1158</v>
       </c>
       <c r="C1131" t="s">
-        <v>1375</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
@@ -17068,7 +17061,7 @@
         <v>1159</v>
       </c>
       <c r="C1132" t="s">
-        <v>1375</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
@@ -17079,7 +17072,7 @@
         <v>1160</v>
       </c>
       <c r="C1133" t="s">
-        <v>1375</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
@@ -17090,7 +17083,7 @@
         <v>1161</v>
       </c>
       <c r="C1134" t="s">
-        <v>1375</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
@@ -17101,7 +17094,7 @@
         <v>1162</v>
       </c>
       <c r="C1135" t="s">
-        <v>1375</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
@@ -17112,7 +17105,7 @@
         <v>1163</v>
       </c>
       <c r="C1136" t="s">
-        <v>1375</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
@@ -17123,7 +17116,7 @@
         <v>1164</v>
       </c>
       <c r="C1137" t="s">
-        <v>1375</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
@@ -17134,7 +17127,7 @@
         <v>1165</v>
       </c>
       <c r="C1138" t="s">
-        <v>1375</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
@@ -17145,7 +17138,7 @@
         <v>1166</v>
       </c>
       <c r="C1139" t="s">
-        <v>1375</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
@@ -17156,7 +17149,7 @@
         <v>1167</v>
       </c>
       <c r="C1140" t="s">
-        <v>1375</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
@@ -17167,7 +17160,7 @@
         <v>1169</v>
       </c>
       <c r="C1141" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
@@ -17178,7 +17171,7 @@
         <v>1170</v>
       </c>
       <c r="C1142" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
@@ -17189,7 +17182,7 @@
         <v>1171</v>
       </c>
       <c r="C1143" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.25">
@@ -17200,7 +17193,7 @@
         <v>1172</v>
       </c>
       <c r="C1144" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.25">
@@ -17211,7 +17204,7 @@
         <v>1173</v>
       </c>
       <c r="C1145" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.25">
@@ -17222,7 +17215,7 @@
         <v>1174</v>
       </c>
       <c r="C1146" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.25">
@@ -17233,7 +17226,7 @@
         <v>1175</v>
       </c>
       <c r="C1147" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.25">
@@ -17244,7 +17237,7 @@
         <v>1176</v>
       </c>
       <c r="C1148" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
@@ -17255,7 +17248,7 @@
         <v>1177</v>
       </c>
       <c r="C1149" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
@@ -17266,7 +17259,7 @@
         <v>1178</v>
       </c>
       <c r="C1150" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.25">
@@ -17277,7 +17270,7 @@
         <v>1179</v>
       </c>
       <c r="C1151" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.25">
@@ -17288,7 +17281,7 @@
         <v>1180</v>
       </c>
       <c r="C1152" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.25">
@@ -17299,7 +17292,7 @@
         <v>1181</v>
       </c>
       <c r="C1153" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.25">
@@ -17310,7 +17303,7 @@
         <v>1182</v>
       </c>
       <c r="C1154" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.25">
@@ -17321,7 +17314,7 @@
         <v>1183</v>
       </c>
       <c r="C1155" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.25">
@@ -17332,7 +17325,7 @@
         <v>1184</v>
       </c>
       <c r="C1156" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
@@ -17343,7 +17336,7 @@
         <v>1185</v>
       </c>
       <c r="C1157" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.25">
@@ -17354,7 +17347,7 @@
         <v>1186</v>
       </c>
       <c r="C1158" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.25">
@@ -17365,7 +17358,7 @@
         <v>1187</v>
       </c>
       <c r="C1159" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.25">
@@ -17376,7 +17369,7 @@
         <v>1188</v>
       </c>
       <c r="C1160" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.25">
@@ -17387,7 +17380,7 @@
         <v>1189</v>
       </c>
       <c r="C1161" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.25">
@@ -17398,7 +17391,7 @@
         <v>1190</v>
       </c>
       <c r="C1162" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.25">
@@ -17409,7 +17402,7 @@
         <v>1191</v>
       </c>
       <c r="C1163" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.25">
@@ -17420,7 +17413,7 @@
         <v>1193</v>
       </c>
       <c r="C1164" t="s">
-        <v>1377</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.25">
@@ -17431,7 +17424,7 @@
         <v>1194</v>
       </c>
       <c r="C1165" t="s">
-        <v>1377</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.25">
@@ -17442,7 +17435,7 @@
         <v>1195</v>
       </c>
       <c r="C1166" t="s">
-        <v>1377</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.25">
@@ -17453,7 +17446,7 @@
         <v>1196</v>
       </c>
       <c r="C1167" t="s">
-        <v>1377</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.25">
@@ -17464,7 +17457,7 @@
         <v>1197</v>
       </c>
       <c r="C1168" t="s">
-        <v>1377</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.25">
@@ -17475,7 +17468,7 @@
         <v>1198</v>
       </c>
       <c r="C1169" t="s">
-        <v>1377</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
@@ -17486,7 +17479,7 @@
         <v>1199</v>
       </c>
       <c r="C1170" t="s">
-        <v>1377</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
@@ -17497,7 +17490,7 @@
         <v>1200</v>
       </c>
       <c r="C1171" t="s">
-        <v>1377</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
